--- a/data/trans_bre/P24_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_5_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,54</t>
+          <t>23,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>15,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>107,07%</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>269,57%</t>
+          <t>104,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>390,21%</t>
+          <t>217,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>168,83%</t>
+          <t>360,74%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>168,06%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>134,22%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 16,71</t>
+          <t>-4,69; 23,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 16,92</t>
+          <t>-0,89; 26,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 23,6</t>
+          <t>9,04; 38,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 21,09</t>
+          <t>-0,51; 28,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 372,17</t>
+          <t>-5,17; 26,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,69; 1444,74</t>
+          <t>-44,3; 972,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,58; 1882,43</t>
+          <t>-26,12; 1518,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 558,42</t>
+          <t>33,93; 1710,45</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; 903,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-33,52; 801,02</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,3</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>19,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,16</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>187,56%</t>
+          <t>20,21</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>214,87%</t>
+          <t>142,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>149,31%</t>
+          <t>258,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>415,04%</t>
+          <t>223,1%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>255,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>348,66%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 20,59</t>
+          <t>-6,83; 20,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 20,85</t>
+          <t>11,08; 27,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 19,69</t>
+          <t>10,82; 26,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 27,96</t>
+          <t>9,98; 24,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,35; 492,48</t>
+          <t>11,82; 27,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,33; 432,54</t>
+          <t>-44,86; 614,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,7; 312,32</t>
+          <t>95,61; 689,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>207,36; 821,36</t>
+          <t>73,94; 510,72</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>82,79; 597,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>127,06; 906,3</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,27</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,7</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>148,29%</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>146,31%</t>
+          <t>114,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>164,68%</t>
+          <t>103,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>131,4%</t>
+          <t>108,64%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>134,24%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>175,65%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 21,54</t>
+          <t>3,38; 20,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 15,14</t>
+          <t>0,5; 15,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 20,56</t>
+          <t>2,93; 21,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 17,43</t>
+          <t>1,54; 17,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,91; 315,69</t>
+          <t>3,44; 19,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,3; 368,53</t>
+          <t>19,64; 293,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>65,12; 337,41</t>
+          <t>1,02; 394,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,51; 325,31</t>
+          <t>13,8; 291,08</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5,8; 445,44</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 553,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>158,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>193,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>172,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>250,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 17,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 20,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,85; 271,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,28; 324,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,72; 277,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>138,58; 406,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11,8</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,87</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16,9</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14,15</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,56</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>125,98%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>188,23%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>182,78%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>193,1%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>236,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 17,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,84; 18,54</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,08; 22,13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9,33; 19,34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 21,5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15,27; 268,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>83,95; 349,17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>92,69; 328,63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>95,01; 375,97</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>112,73; 439,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_5_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,14</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,7</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>23,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,16</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,06</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>104,52%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>217,5%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>360,74%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>168,06%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>134,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.139524158246076</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13.25801507535818</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>22.57328080061265</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>13.23904864779349</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>10.39910655896644</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.045195967225521</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.241123043985941</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>3.439621721378348</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.400150236640556</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.054831520283478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 23,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 26,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9,04; 38,82</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 28,71</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-5,17; 26,89</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-44,3; 972,58</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-26,12; 1518,68</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>33,93; 1710,45</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-17,5; 903,7</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-33,52; 801,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.687930537880931</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.08607983830534545</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>7.842007798829997</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.296825097744443</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.624935070269625</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4429843704120838</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3197340709987286</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.344264781301461</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.251057211704011</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.409157455087379</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.11886166252241</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.81870196382812</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>37.16076383828502</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.88165768852451</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>26.74017374609404</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>9.725828700510657</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>14.49234241452131</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>15.44270406351324</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>8.188813572750306</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>7.267140853043504</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>19,47</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>18,49</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17,51</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>20,21</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>142,31%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>258,73%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>223,1%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>255,97%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>348,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 20,69</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>11,08; 27,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>10,82; 26,46</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>9,98; 24,53</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>11,82; 27,25</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-44,86; 614,78</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>95,61; 689,25</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>73,94; 510,72</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>82,79; 597,83</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>127,06; 906,3</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>12.7799632600505</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>20.95578991647748</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>17.70020969478006</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>17.97695653636421</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>20.87583306832236</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.423107612787053</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.890195346396991</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.125111413448583</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.681759447675603</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>3.500822835462376</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,5</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,5</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,42</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>114,14%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>103,26%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>108,64%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>134,24%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>175,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.833540688473624</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>12.21032341525495</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>9.642943326430865</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>10.4282515126572</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>12.27273773852843</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4485542185483761</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>1.05123259053934</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.6465476653033172</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.8893802408840131</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>1.203196047656759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 20,45</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 15,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,93; 21,47</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 17,77</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 19,15</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>19,64; 293,74</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 394,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>13,8; 291,08</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5,8; 445,44</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>19,21; 553,98</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>20.69172001881903</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>29.36458555445536</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>25.61489227374544</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>25.05122976766866</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>28.26785064144552</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>6.147751800232022</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.682687556713645</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.82329046698513</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>6.079000998856629</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>9.694590819593493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>11.50089526955704</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.633706241767424</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>11.94391449654384</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.09442521841636</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>11.10216973921881</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.141417458036439</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.062310104150909</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.9842771461380547</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.355039164074517</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.624810678416795</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.382230364798337</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5104841882331369</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.819185383125258</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.413912620015511</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.578427600849986</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.196382807899485</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.01024797054031636</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.06216207724359288</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.03355872163986697</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.1346692529533531</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.4453209699414</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.61397523153251</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.99368284586917</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.44708996126044</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>18.83816483049405</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.937429956030766</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>4.066800425544526</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.871103722234645</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>4.315420493244848</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>5.194960156472534</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>11,8</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,87</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>16,9</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,15</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>15,56</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>125,98%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>188,23%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>182,78%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>193,1%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>236,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,07; 17,36</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 18,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>11,08; 22,13</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>9,33; 19,34</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>10,47; 21,5</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>15,27; 268,46</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>83,95; 349,17</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>92,69; 328,63</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>95,01; 375,97</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>112,73; 439,53</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>11.79541581697347</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>14.5061972353272</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>16.19172288682679</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>14.27424018001995</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>15.48084731996734</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.259816344390748</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>2.060645670292687</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.705013769423415</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.943563449797373</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>2.244410142197033</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.068981143653525</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>9.60006213140881</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>10.3240586424836</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>9.458346576726063</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>10.15107876513373</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1527289635561171</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.9712167587681548</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.8557006088933738</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.9472622015029402</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>1.060168103078033</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.3551955658785</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.19496106947625</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>21.33843042350948</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>19.34298293536303</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>21.22815139473373</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.684604501013539</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.823356482057351</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.079721444271434</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.908783849231379</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>4.249700408765293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
